--- a/CONVERSAO_HORAS_DECIMAIS_app1.xlsx
+++ b/CONVERSAO_HORAS_DECIMAIS_app1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="20">
   <si>
     <t>Matrícula</t>
   </si>
@@ -37,33 +37,9 @@
     <t>Valor manual</t>
   </si>
   <si>
-    <t>HARRY</t>
-  </si>
-  <si>
     <t>Folha</t>
   </si>
   <si>
-    <t>GINNA</t>
-  </si>
-  <si>
-    <t>RONNY</t>
-  </si>
-  <si>
-    <t>HERMIONE</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>LUPIN</t>
-  </si>
-  <si>
-    <t>SNAPE</t>
-  </si>
-  <si>
-    <t>SIRIUS</t>
-  </si>
-  <si>
     <t>Horas</t>
   </si>
   <si>
@@ -74,6 +50,36 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>ALAN PATRICK PASSOS FARIAS</t>
+  </si>
+  <si>
+    <t>DANIEL FREITAS MADUREIRA</t>
+  </si>
+  <si>
+    <t>FRANCINEI DA SILVA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>GIELSON NEVES DE ARAUJO</t>
+  </si>
+  <si>
+    <t>GILSON MACHADO VILARINHO SOUZA</t>
+  </si>
+  <si>
+    <t>JEAN DOS SANTOS VILHENA</t>
+  </si>
+  <si>
+    <t>ROMARIO JAKSON SOARES RIBEIRO</t>
+  </si>
+  <si>
+    <t>ROSIVALDO SILVA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>THAIS PINHEIRO BELFORT</t>
+  </si>
+  <si>
+    <t>WEMERSON EDUARDO NUNES PAIXÃO</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -135,10 +141,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -446,14 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -474,53 +477,53 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
         <v>16</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>57</v>
@@ -528,67 +531,72 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>34</v>
+      </c>
+      <c r="G5">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -598,56 +606,434 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2">
-        <v>9</v>
-      </c>
-      <c r="G9">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2">
+        <v>57</v>
+      </c>
+      <c r="G19">
         <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -659,10 +1045,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="evento_simplificado.xls"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,98 +1079,98 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -795,52 +1181,324 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/CONVERSAO_HORAS_DECIMAIS_app1.xlsx
+++ b/CONVERSAO_HORAS_DECIMAIS_app1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devse\OneDrive\Documentos\GitHub\ExcelTimeConverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devse\Documentos\GitHub\ExcelTimeConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>Matrícula</t>
   </si>
@@ -52,7 +52,76 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>NOME DO FUNCIONARIO</t>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>lucas</t>
+  </si>
+  <si>
+    <t>joao</t>
+  </si>
+  <si>
+    <t>paulo</t>
+  </si>
+  <si>
+    <t>marcos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maria </t>
+  </si>
+  <si>
+    <t>madalena</t>
+  </si>
+  <si>
+    <t>soraya</t>
+  </si>
+  <si>
+    <t>joyce</t>
+  </si>
+  <si>
+    <t>carla</t>
+  </si>
+  <si>
+    <t>vanessa</t>
+  </si>
+  <si>
+    <t>ruan</t>
+  </si>
+  <si>
+    <t>vitor</t>
+  </si>
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>ronny</t>
+  </si>
+  <si>
+    <t>salazar</t>
+  </si>
+  <si>
+    <t>grinfindor</t>
+  </si>
+  <si>
+    <t>wesley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armando </t>
+  </si>
+  <si>
+    <t>francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fernando </t>
+  </si>
+  <si>
+    <t>asdfghj</t>
+  </si>
+  <si>
+    <t>fghjkhg</t>
+  </si>
+  <si>
+    <t>hasjas</t>
   </si>
 </sst>
 </file>
@@ -500,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>
@@ -586,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -609,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
@@ -632,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -655,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
@@ -678,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -702,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>5</v>
@@ -725,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -748,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -771,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -794,7 +863,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>5</v>
@@ -817,7 +886,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -840,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>5</v>
@@ -863,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -886,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>5</v>
@@ -909,7 +978,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -932,7 +1001,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>5</v>
@@ -955,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -978,7 +1047,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>5</v>
@@ -1001,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -1024,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>5</v>
@@ -1047,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -1070,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>5</v>
@@ -1100,7 +1169,7 @@
   <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,540 +1206,180 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <f>conversao!A2</f>
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>conversao!B2</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f>conversao!C2</f>
-        <v>Folha</v>
-      </c>
-      <c r="D2" s="2">
-        <f>conversao!D2</f>
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f>conversao!E2</f>
-        <v>não</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>conversao!A3</f>
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>conversao!B3</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>conversao!C3</f>
-        <v>Folha</v>
-      </c>
-      <c r="D3" s="2">
-        <f>conversao!D3</f>
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>conversao!E3</f>
-        <v>não</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f>conversao!A4</f>
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>conversao!B4</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f>conversao!C4</f>
-        <v>Folha</v>
-      </c>
-      <c r="D4" s="2">
-        <f>conversao!D4</f>
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f>conversao!E4</f>
-        <v>não</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f>conversao!A5</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>conversao!B5</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f>conversao!C5</f>
-        <v>Folha</v>
-      </c>
-      <c r="D5" s="2">
-        <f>conversao!D5</f>
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <f>conversao!E5</f>
-        <v>não</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f>conversao!A6</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>conversao!B6</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f>conversao!C6</f>
-        <v>Folha</v>
-      </c>
-      <c r="D6" s="2">
-        <f>conversao!D6</f>
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <f>conversao!E6</f>
-        <v>não</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>conversao!A7</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>conversao!B7</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>conversao!C7</f>
-        <v>Folha</v>
-      </c>
-      <c r="D7" s="2">
-        <f>conversao!D7</f>
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>conversao!E7</f>
-        <v>não</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f>conversao!A8</f>
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>conversao!B8</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f>conversao!C8</f>
-        <v>Folha</v>
-      </c>
-      <c r="D8" s="2">
-        <f>conversao!D8</f>
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>conversao!E8</f>
-        <v>não</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>conversao!A9</f>
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>conversao!B9</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f>conversao!C9</f>
-        <v>Folha</v>
-      </c>
-      <c r="D9" s="2">
-        <f>conversao!D9</f>
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>conversao!E9</f>
-        <v>não</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f>conversao!A10</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>conversao!B10</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f>conversao!C10</f>
-        <v>Folha</v>
-      </c>
-      <c r="D10" s="2">
-        <f>conversao!D10</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f>conversao!E10</f>
-        <v>não</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f>conversao!A11</f>
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>conversao!B11</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f>conversao!C11</f>
-        <v>Folha</v>
-      </c>
-      <c r="D11" s="2">
-        <f>conversao!D11</f>
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>conversao!E11</f>
-        <v>não</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f>conversao!A12</f>
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>conversao!B12</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f>conversao!C12</f>
-        <v>Folha</v>
-      </c>
-      <c r="D12" s="2">
-        <f>conversao!D12</f>
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f>conversao!E12</f>
-        <v>não</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f>conversao!A13</f>
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>conversao!B13</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f>conversao!C13</f>
-        <v>Folha</v>
-      </c>
-      <c r="D13" s="2">
-        <f>conversao!D13</f>
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f>conversao!E13</f>
-        <v>não</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f>conversao!A14</f>
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>conversao!B14</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>conversao!C14</f>
-        <v>Folha</v>
-      </c>
-      <c r="D14" s="2">
-        <f>conversao!D14</f>
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f>conversao!E14</f>
-        <v>não</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f>conversao!A15</f>
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>conversao!B15</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>conversao!C15</f>
-        <v>Folha</v>
-      </c>
-      <c r="D15" s="2">
-        <f>conversao!D15</f>
-        <v>5</v>
-      </c>
-      <c r="E15" s="2" t="str">
-        <f>conversao!E15</f>
-        <v>não</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f>conversao!A16</f>
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>conversao!B16</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f>conversao!C16</f>
-        <v>Folha</v>
-      </c>
-      <c r="D16" s="2">
-        <f>conversao!D16</f>
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="str">
-        <f>conversao!E16</f>
-        <v>não</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f>conversao!A17</f>
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>conversao!B17</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>conversao!C17</f>
-        <v>Folha</v>
-      </c>
-      <c r="D17" s="2">
-        <f>conversao!D17</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f>conversao!E17</f>
-        <v>não</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f>conversao!A18</f>
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>conversao!B18</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>conversao!C18</f>
-        <v>Folha</v>
-      </c>
-      <c r="D18" s="2">
-        <f>conversao!D18</f>
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f>conversao!E18</f>
-        <v>não</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f>conversao!A19</f>
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>conversao!B19</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f>conversao!C19</f>
-        <v>Folha</v>
-      </c>
-      <c r="D19" s="2">
-        <f>conversao!D19</f>
-        <v>5</v>
-      </c>
-      <c r="E19" s="2" t="str">
-        <f>conversao!E19</f>
-        <v>não</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f>conversao!A20</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>conversao!B20</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <f>conversao!C20</f>
-        <v>Folha</v>
-      </c>
-      <c r="D20" s="2">
-        <f>conversao!D20</f>
-        <v>15</v>
-      </c>
-      <c r="E20" s="2" t="str">
-        <f>conversao!E20</f>
-        <v>não</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f>conversao!A21</f>
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>conversao!B21</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <f>conversao!C21</f>
-        <v>Folha</v>
-      </c>
-      <c r="D21" s="2">
-        <f>conversao!D21</f>
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f>conversao!E21</f>
-        <v>não</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f>conversao!A22</f>
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>conversao!B22</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <f>conversao!C22</f>
-        <v>Folha</v>
-      </c>
-      <c r="D22" s="2">
-        <f>conversao!D22</f>
-        <v>5</v>
-      </c>
-      <c r="E22" s="2" t="str">
-        <f>conversao!E22</f>
-        <v>não</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f>conversao!A23</f>
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f>conversao!B23</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C23" s="2" t="str">
-        <f>conversao!C23</f>
-        <v>Folha</v>
-      </c>
-      <c r="D23" s="2">
-        <f>conversao!D23</f>
-        <v>5</v>
-      </c>
-      <c r="E23" s="2" t="str">
-        <f>conversao!E23</f>
-        <v>não</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f>conversao!A24</f>
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f>conversao!B24</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <f>conversao!C24</f>
-        <v>Folha</v>
-      </c>
-      <c r="D24" s="2">
-        <f>conversao!D24</f>
-        <v>15</v>
-      </c>
-      <c r="E24" s="2" t="str">
-        <f>conversao!E24</f>
-        <v>não</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f>conversao!A25</f>
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>conversao!B25</f>
-        <v>NOME DO FUNCIONARIO</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <f>conversao!C25</f>
-        <v>Folha</v>
-      </c>
-      <c r="D25" s="2">
-        <f>conversao!D25</f>
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f>conversao!E25</f>
-        <v>não</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
